--- a/data_year/zb/公共管理、社会保障及其他/火灾事故/火灾平均每起事故损失.xlsx
+++ b/data_year/zb/公共管理、社会保障及其他/火灾事故/火灾平均每起事故损失.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,246 +463,60 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6122</v>
+        <v>13049</v>
       </c>
       <c r="C2" t="n">
-        <v>8046</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3280967</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
+        <v>14789</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>1529000</v>
+      </c>
       <c r="F2" t="n">
-        <v>433982</v>
+        <v>28461500</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5515.36812338857</v>
+        <v>14235</v>
       </c>
       <c r="C3" t="n">
-        <v>6473</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2368086</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
+        <v>16405</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>1971913</v>
+      </c>
       <c r="F3" t="n">
-        <v>387557</v>
+        <v>16514571</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4974</v>
+        <v>12834.8</v>
       </c>
       <c r="C4" t="n">
-        <v>5979</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4875200</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
+        <v>14308.7</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>3301046</v>
+      </c>
       <c r="F4" t="n">
-        <v>405814</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>2003年</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>5279.11589573721</v>
-      </c>
-      <c r="C5" t="n">
-        <v>6265.00795488556</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3223945.94594595</v>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="n">
-        <v>435636.06557377</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2005年</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>4991.64042807798</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5776.35934407331</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2360606.06060606</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="n">
-        <v>434640</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>2730.9</v>
-      </c>
-      <c r="C7" t="n">
-        <v>3522.5</v>
-      </c>
-      <c r="D7" t="n">
-        <v>4770764.3</v>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="n">
-        <v>449908.9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>6498.77596270328</v>
-      </c>
-      <c r="C8" t="n">
-        <v>6880</v>
-      </c>
-      <c r="D8" t="n">
-        <v>301338</v>
-      </c>
-      <c r="E8" t="n">
-        <v>720067.454545454</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1891690</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>9655</v>
-      </c>
-      <c r="C9" t="n">
-        <v>13315.4910658823</v>
-      </c>
-      <c r="D9" t="n">
-        <v>150135600</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1399478</v>
-      </c>
-      <c r="F9" t="n">
-        <v>23398519</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>11305</v>
-      </c>
-      <c r="C10" t="n">
-        <v>12551</v>
-      </c>
-      <c r="D10" t="n">
-        <v>150722000</v>
-      </c>
-      <c r="E10" t="n">
-        <v>139814</v>
-      </c>
-      <c r="F10" t="n">
-        <v>763750</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>13049</v>
-      </c>
-      <c r="C11" t="n">
-        <v>14789</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="n">
-        <v>1529000</v>
-      </c>
-      <c r="F11" t="n">
-        <v>28461500</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>14235</v>
-      </c>
-      <c r="C12" t="n">
-        <v>16405</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="n">
-        <v>1971913</v>
-      </c>
-      <c r="F12" t="n">
-        <v>16514571</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>12834.8</v>
-      </c>
-      <c r="C13" t="n">
-        <v>14308.7</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="n">
-        <v>3301046</v>
-      </c>
-      <c r="F13" t="n">
         <v>13494227.5</v>
       </c>
     </row>
